--- a/results/results-style.xlsx
+++ b/results/results-style.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heron/project/serverless-study/Summary/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heron/project/serverless-study/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17480" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17480" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Drop rate" sheetId="1" r:id="rId1"/>
@@ -1350,11 +1350,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-779692560"/>
-        <c:axId val="-779689072"/>
+        <c:axId val="-1660470096"/>
+        <c:axId val="-1660465728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-779692560"/>
+        <c:axId val="-1660470096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1413,7 +1413,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-779689072"/>
+        <c:crossAx val="-1660465728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1422,7 +1422,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-779689072"/>
+        <c:axId val="-1660465728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1483,7 +1483,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-779692560"/>
+        <c:crossAx val="-1660470096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2821,11 +2821,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-778860928"/>
-        <c:axId val="-778857168"/>
+        <c:axId val="-1652879760"/>
+        <c:axId val="-1652876000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-778860928"/>
+        <c:axId val="-1652879760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2880,7 +2880,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-778857168"/>
+        <c:crossAx val="-1652876000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2890,7 +2890,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-778857168"/>
+        <c:axId val="-1652876000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2966,7 +2966,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-778860928"/>
+        <c:crossAx val="-1652879760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3080,10 +3080,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400">
+            <a:ln w="19050">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:prstDash val="dashDot"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -3215,11 +3216,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225">
+            <a:ln w="19050">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
+              <a:prstDash val="dash"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -3351,17 +3352,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
+              <a:prstDash val="sysDot"/>
               <a:bevel/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -3481,11 +3482,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-779006768"/>
-        <c:axId val="-779003008"/>
+        <c:axId val="-1660427504"/>
+        <c:axId val="-1660423744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-779006768"/>
+        <c:axId val="-1660427504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="21.0"/>
@@ -3541,7 +3542,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-779003008"/>
+        <c:crossAx val="-1660423744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -3551,7 +3552,7 @@
         <c:minorUnit val="1.0"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-779003008"/>
+        <c:axId val="-1660423744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -3628,7 +3629,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-779006768"/>
+        <c:crossAx val="-1660427504"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3646,10 +3647,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.660329861111111"/>
-          <c:y val="0.464797803052396"/>
-          <c:w val="0.256275444395179"/>
-          <c:h val="0.218361614703653"/>
+          <c:x val="0.610883971725803"/>
+          <c:y val="0.426416456022137"/>
+          <c:w val="0.305721393262709"/>
+          <c:h val="0.226037900300161"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3742,10 +3743,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575">
+            <a:ln w="19050">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:prstDash val="dashDot"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -3877,11 +3879,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575">
+            <a:ln w="19050">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
+              <a:prstDash val="dash"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -4013,16 +4015,16 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575">
+            <a:ln w="19050">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
+              <a:prstDash val="sysDot"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -4144,11 +4146,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-813632560"/>
-        <c:axId val="-813628800"/>
+        <c:axId val="-1653142144"/>
+        <c:axId val="-1653138384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-813632560"/>
+        <c:axId val="-1653142144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.0"/>
@@ -4182,7 +4184,7 @@
         <c:spPr>
           <a:ln/>
         </c:spPr>
-        <c:crossAx val="-813628800"/>
+        <c:crossAx val="-1653138384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -4192,7 +4194,7 @@
         <c:minorUnit val="1.0"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-813628800"/>
+        <c:axId val="-1653138384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4238,7 +4240,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-813632560"/>
+        <c:crossAx val="-1653142144"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4256,10 +4258,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.627292503191142"/>
-          <c:y val="0.54067654845679"/>
-          <c:w val="0.253748699222629"/>
-          <c:h val="0.217230717611342"/>
+          <c:x val="0.601536487580288"/>
+          <c:y val="0.521637751270124"/>
+          <c:w val="0.322431646064793"/>
+          <c:h val="0.259116032866559"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4352,11 +4354,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575">
+            <a:ln w="19050">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
+              <a:prstDash val="dashDot"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -4488,11 +4490,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575">
+            <a:ln w="19050">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
+              <a:prstDash val="dash"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -4624,16 +4626,16 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575">
+            <a:ln w="19050">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
+              <a:prstDash val="sysDot"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -4755,11 +4757,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-813597136"/>
-        <c:axId val="-813593376"/>
+        <c:axId val="-1653106720"/>
+        <c:axId val="-1653102960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-813597136"/>
+        <c:axId val="-1653106720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.0"/>
@@ -4815,7 +4817,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-813593376"/>
+        <c:crossAx val="-1653102960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -4825,7 +4827,7 @@
         <c:minorUnit val="1.0"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-813593376"/>
+        <c:axId val="-1653102960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4893,7 +4895,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-813597136"/>
+        <c:crossAx val="-1653106720"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -4914,10 +4916,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.631511291256514"/>
-          <c:y val="0.548120665224849"/>
-          <c:w val="0.254095166729112"/>
-          <c:h val="0.217275529916113"/>
+          <c:x val="0.588526121949893"/>
+          <c:y val="0.540503727712221"/>
+          <c:w val="0.320005704265857"/>
+          <c:h val="0.221084027890443"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -5372,11 +5374,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-778965392"/>
-        <c:axId val="-778961360"/>
+        <c:axId val="-1653068720"/>
+        <c:axId val="-1653064688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-778965392"/>
+        <c:axId val="-1653068720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.0"/>
@@ -5432,7 +5434,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-778961360"/>
+        <c:crossAx val="-1653064688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -5442,7 +5444,7 @@
         <c:minorUnit val="1.0"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-778961360"/>
+        <c:axId val="-1653064688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5494,7 +5496,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-778965392"/>
+        <c:crossAx val="-1653068720"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5584,10 +5586,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575">
+            <a:ln w="19050">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:prstDash val="dashDot"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -5719,11 +5722,11 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575">
+            <a:ln w="19050">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
+              <a:prstDash val="dash"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -5825,16 +5828,16 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575">
+            <a:ln w="19050">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
+              <a:prstDash val="sysDot"/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -5956,11 +5959,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-778927472"/>
-        <c:axId val="-778923712"/>
+        <c:axId val="-1653034640"/>
+        <c:axId val="-1653030880"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-778927472"/>
+        <c:axId val="-1653034640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.0"/>
@@ -6016,7 +6019,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-778923712"/>
+        <c:crossAx val="-1653030880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -6026,7 +6029,7 @@
         <c:minorUnit val="1.0"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-778923712"/>
+        <c:axId val="-1653030880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6087,7 +6090,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-778927472"/>
+        <c:crossAx val="-1653034640"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6105,9 +6108,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.673350694444444"/>
+          <c:x val="0.62416087962963"/>
           <c:y val="0.487945951200544"/>
-          <c:w val="0.254947916666667"/>
+          <c:w val="0.304137731481481"/>
           <c:h val="0.219492745698454"/>
         </c:manualLayout>
       </c:layout>
@@ -7449,11 +7452,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-778884304"/>
-        <c:axId val="-778880544"/>
+        <c:axId val="-1652991376"/>
+        <c:axId val="-1652987616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-778884304"/>
+        <c:axId val="-1652991376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7512,7 +7515,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-778880544"/>
+        <c:crossAx val="-1652987616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7522,7 +7525,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-778880544"/>
+        <c:axId val="-1652987616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -7592,7 +7595,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-778884304"/>
+        <c:crossAx val="-1652991376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8941,11 +8944,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-779651824"/>
-        <c:axId val="-779648064"/>
+        <c:axId val="-1652953600"/>
+        <c:axId val="-1652949840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-779651824"/>
+        <c:axId val="-1652953600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9000,7 +9003,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-779648064"/>
+        <c:crossAx val="-1652949840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9010,7 +9013,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-779648064"/>
+        <c:axId val="-1652949840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1200.0"/>
@@ -9087,7 +9090,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-779651824"/>
+        <c:crossAx val="-1652953600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10449,11 +10452,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-848871776"/>
-        <c:axId val="-848616976"/>
+        <c:axId val="-1652912992"/>
+        <c:axId val="-1652909232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-848871776"/>
+        <c:axId val="-1652912992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10508,7 +10511,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-848616976"/>
+        <c:crossAx val="-1652909232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10518,7 +10521,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-848616976"/>
+        <c:axId val="-1652909232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -10588,7 +10591,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-848871776"/>
+        <c:crossAx val="-1652912992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11317,8 +11320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T77"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="143" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="A23" zoomScale="143" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15602,8 +15605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA77"/>
   <sheetViews>
-    <sheetView topLeftCell="AB7" zoomScale="400" zoomScaleNormal="133" zoomScalePageLayoutView="133" workbookViewId="0">
-      <selection activeCell="AB28" sqref="AB28"/>
+    <sheetView topLeftCell="AB8" zoomScale="150" zoomScaleNormal="133" zoomScalePageLayoutView="133" workbookViewId="0">
+      <selection activeCell="AJ26" sqref="AJ26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21141,8 +21144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA77"/>
   <sheetViews>
-    <sheetView topLeftCell="X23" zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="138" workbookViewId="0">
-      <selection activeCell="Z38" sqref="Z38"/>
+    <sheetView tabSelected="1" topLeftCell="X19" zoomScale="138" zoomScaleNormal="138" zoomScalePageLayoutView="138" workbookViewId="0">
+      <selection activeCell="AH36" sqref="AH36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26677,8 +26680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="134" zoomScalePageLayoutView="134" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+    <sheetView topLeftCell="P1" zoomScale="134" zoomScaleNormal="134" zoomScalePageLayoutView="134" workbookViewId="0">
+      <selection activeCell="AB19" sqref="AB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30083,8 +30086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T62"/>
   <sheetViews>
-    <sheetView topLeftCell="R10" zoomScale="139" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+    <sheetView topLeftCell="Q16" zoomScale="139" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
